--- a/AirTrafficContol/MINGW-BUILD/Test.xlsx
+++ b/AirTrafficContol/MINGW-BUILD/Test.xlsx
@@ -1,30 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AirTrafficControl\AirTrafficContol\MINGW-BUILD\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Hello Qt!</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>01.10.2018</t>
+  </si>
+  <si>
+    <t>05.10.2018</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1">
     <font>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -48,19 +72,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -102,7 +137,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -134,9 +169,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -168,6 +204,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -343,18 +380,115 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="str">
+        <f>TEXT(M1,"hh:mm:ss")</f>
+        <v>02:05:00</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1">
+        <v>8.6805555555555566E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="str">
+        <f>TEXT(M2,"hh:mm:ss")</f>
+        <v>02:25:00</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.10069444444444443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C10" si="0">TEXT(M3,"hh:mm:ss")</f>
+        <v>02:15:00</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="3">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>00:00:00</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>00:00:00</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>00:00:00</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>00:00:00</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>00:00:00</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>00:00:00</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>00:00:00</v>
+      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/AirTrafficContol/MINGW-BUILD/Test.xlsx
+++ b/AirTrafficContol/MINGW-BUILD/Test.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AirTrafficControl\AirTrafficContol\MINGW-BUILD\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2E9436-3577-4A81-807B-C7FC1983488D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>A</t>
   </si>
@@ -33,9 +34,6 @@
     <t>01.10.2018</t>
   </si>
   <si>
-    <t>05.10.2018</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -45,7 +43,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -170,6 +168,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -205,6 +220,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -380,11 +412,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -401,13 +433,13 @@
       </c>
       <c r="C1" t="str">
         <f>TEXT(M1,"hh:mm:ss")</f>
-        <v>02:05:00</v>
+        <v>02:06:00</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="M1" s="1">
-        <v>8.6805555555555566E-2</v>
+        <v>8.7500000000000008E-2</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -422,7 +454,7 @@
         <v>02:25:00</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M2" s="1">
         <v>0.10069444444444443</v>
@@ -430,10 +462,10 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C10" si="0">TEXT(M3,"hh:mm:ss")</f>
